--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -388,7 +388,7 @@
         <v>KILOVATY</v>
       </c>
       <c r="C1" t="str">
-        <v>Net</v>
+        <v>value</v>
       </c>
     </row>
     <row r="2">

--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,59 +385,44 @@
         <v>NAzvaKontrory</v>
       </c>
       <c r="B1" t="str">
-        <v>KILOVATY</v>
-      </c>
-      <c r="C1" t="str">
-        <v>value</v>
+        <v>NomerTelefon</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Здание пети</v>
       </c>
-      <c r="B2">
-        <v>4534</v>
-      </c>
-      <c r="C2">
-        <v>4222</v>
+      <c r="B2" t="str">
+        <v>44-423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>Здание коли</v>
       </c>
-      <c r="B3">
-        <v>442</v>
-      </c>
-      <c r="C3">
-        <v>410</v>
+      <c r="B3" t="str">
+        <v>211-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Здание ильи</v>
       </c>
-      <c r="B4">
-        <v>785</v>
-      </c>
-      <c r="C4">
-        <v>674</v>
+      <c r="B4" t="str">
+        <v>123-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>ИП ИНТЕГРАЛ</v>
       </c>
-      <c r="B5">
-        <v>124</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
+      <c r="B5" t="str">
+        <v>771-12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,6 +385,9 @@
         <v>NAzvaKontrory</v>
       </c>
       <c r="B1" t="str">
+        <v>value</v>
+      </c>
+      <c r="C1" t="str">
         <v>NomerTelefon</v>
       </c>
     </row>
@@ -392,37 +395,69 @@
       <c r="A2" t="str">
         <v>Здание пети</v>
       </c>
-      <c r="B2" t="str">
-        <v>44-423</v>
+      <c r="B2">
+        <v>4222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>Здание коли</v>
       </c>
-      <c r="B3" t="str">
-        <v>211-12</v>
+      <c r="B3">
+        <v>410</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Здание ильи</v>
       </c>
-      <c r="B4" t="str">
-        <v>123-12</v>
+      <c r="B4">
+        <v>674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>ИП ИНТЕГРАЛ</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Здание пети</v>
+      </c>
+      <c r="C6" t="str">
+        <v>44-423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Здание коли</v>
+      </c>
+      <c r="C7" t="str">
+        <v>211-12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Здание ильи</v>
+      </c>
+      <c r="C8" t="str">
+        <v>123-12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ИП ИНТЕГРАЛ</v>
+      </c>
+      <c r="C9" t="str">
         <v>771-12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,9 +385,12 @@
         <v>NAzvaKontrory</v>
       </c>
       <c r="B1" t="str">
+        <v>KILOVATY</v>
+      </c>
+      <c r="C1" t="str">
         <v>value</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>NomerTelefon</v>
       </c>
     </row>
@@ -396,6 +399,9 @@
         <v>Здание пети</v>
       </c>
       <c r="B2">
+        <v>4534</v>
+      </c>
+      <c r="C2">
         <v>4222</v>
       </c>
     </row>
@@ -404,6 +410,9 @@
         <v>Здание коли</v>
       </c>
       <c r="B3">
+        <v>442</v>
+      </c>
+      <c r="C3">
         <v>410</v>
       </c>
     </row>
@@ -412,6 +421,9 @@
         <v>Здание ильи</v>
       </c>
       <c r="B4">
+        <v>785</v>
+      </c>
+      <c r="C4">
         <v>674</v>
       </c>
     </row>
@@ -420,6 +432,9 @@
         <v>ИП ИНТЕГРАЛ</v>
       </c>
       <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
         <v>59</v>
       </c>
     </row>
@@ -427,7 +442,7 @@
       <c r="A6" t="str">
         <v>Здание пети</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>44-423</v>
       </c>
     </row>
@@ -435,7 +450,7 @@
       <c r="A7" t="str">
         <v>Здание коли</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>211-12</v>
       </c>
     </row>
@@ -443,7 +458,7 @@
       <c r="A8" t="str">
         <v>Здание ильи</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>123-12</v>
       </c>
     </row>
@@ -451,13 +466,13 @@
       <c r="A9" t="str">
         <v>ИП ИНТЕГРАЛ</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>771-12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -375,104 +375,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>NAzvaKontrory</v>
+        <v>KONTORY</v>
       </c>
       <c r="B1" t="str">
-        <v>KILOVATY</v>
+        <v>RASHOD_PTO</v>
       </c>
       <c r="C1" t="str">
+        <v>Kilovaty</v>
+      </c>
+      <c r="D1" t="str">
+        <v>NumberSCH</v>
+      </c>
+      <c r="E1" t="str">
         <v>value</v>
       </c>
-      <c r="D1" t="str">
-        <v>NomerTelefon</v>
+      <c r="F1" t="str">
+        <v>KONTORY_2</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Kilovaty_2</v>
+      </c>
+      <c r="H1" t="str">
+        <v>NumberSCH_2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Здание пети</v>
+        <v>ОАО Мышь</v>
       </c>
       <c r="B2">
-        <v>4534</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>4222</v>
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>231</v>
+      </c>
+      <c r="E2">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Здание коли</v>
+        <v>ИП вартилов</v>
       </c>
       <c r="B3">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>410</v>
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>233</v>
+      </c>
+      <c r="E3">
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Здание ильи</v>
+        <v>Дом не жилой</v>
       </c>
       <c r="B4">
-        <v>785</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>674</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>235</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ИП ИНТЕГРАЛ</v>
+        <v>ИП ХЗКТОТЫЧ</v>
       </c>
       <c r="B5">
-        <v>124</v>
+        <v>2333</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>222</v>
+      </c>
+      <c r="E5">
+        <v>2310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Здание пети</v>
-      </c>
-      <c r="D6" t="str">
-        <v>44-423</v>
+        <v>Какой то чел</v>
+      </c>
+      <c r="B6">
+        <v>321</v>
+      </c>
+      <c r="C6">
+        <v>1234</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>-913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Здание коли</v>
-      </c>
-      <c r="D7" t="str">
-        <v>211-12</v>
+        <v>Фирма 12</v>
+      </c>
+      <c r="B7">
+        <v>213</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Здание ильи</v>
-      </c>
-      <c r="D8" t="str">
-        <v>123-12</v>
+        <v>Фирма 24</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>532</v>
+      </c>
+      <c r="D8">
+        <v>5578</v>
+      </c>
+      <c r="E8">
+        <v>-521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>ИП ИНТЕГРАЛ</v>
-      </c>
-      <c r="D9" t="str">
-        <v>771-12</v>
+        <v>Фирма 72</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="D9">
+        <v>1232</v>
+      </c>
+      <c r="E9">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>фирма 19</v>
+      </c>
+      <c r="B10">
+        <v>223</v>
+      </c>
+      <c r="C10">
+        <v>313</v>
+      </c>
+      <c r="D10">
+        <v>31245</v>
+      </c>
+      <c r="E10">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="str">
+        <v>Фирма 12</v>
+      </c>
+      <c r="G11">
+        <v>123</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="str">
+        <v>Фирма 72</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="str">
+        <v>ИП ХЗКТОТЫЧ</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="str">
+        <v>фирма 19</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>31245</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -397,10 +397,10 @@
         <v>value</v>
       </c>
       <c r="F1" t="str">
+        <v>Kilovaty_2</v>
+      </c>
+      <c r="G1" t="str">
         <v>KONTORY_2</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Kilovaty_2</v>
       </c>
       <c r="H1" t="str">
         <v>NumberSCH_2</v>
@@ -422,6 +422,9 @@
       <c r="E2">
         <v>92</v>
       </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -439,6 +442,9 @@
       <c r="E3">
         <v>-10</v>
       </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -456,6 +462,9 @@
       <c r="E4">
         <v>29</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -473,6 +482,9 @@
       <c r="E5">
         <v>2310</v>
       </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -490,6 +502,9 @@
       <c r="E6">
         <v>-913</v>
       </c>
+      <c r="F6">
+        <v>1234</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -507,6 +522,9 @@
       <c r="E7">
         <v>90</v>
       </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -524,6 +542,9 @@
       <c r="E8">
         <v>-521</v>
       </c>
+      <c r="F8">
+        <v>532</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -541,6 +562,9 @@
       <c r="E9">
         <v>-101</v>
       </c>
+      <c r="F9">
+        <v>123</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -558,46 +582,61 @@
       <c r="E10">
         <v>-90</v>
       </c>
+      <c r="F10">
+        <v>313</v>
+      </c>
     </row>
     <row r="11">
-      <c r="F11" t="str">
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>123</v>
+      </c>
+      <c r="G11" t="str">
         <v>Фирма 12</v>
-      </c>
-      <c r="G11">
-        <v>123</v>
       </c>
       <c r="H11">
         <v>43</v>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="str">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
         <v>Фирма 72</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
       </c>
       <c r="H12">
         <v>1232</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="str">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
         <v>ИП ХЗКТОТЫЧ</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
       </c>
       <c r="H13">
         <v>222</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="str">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
         <v>фирма 19</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
       </c>
       <c r="H14">
         <v>31245</v>

--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -375,276 +375,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>KONTORY</v>
+        <v>KONTORY_2</v>
       </c>
       <c r="B1" t="str">
-        <v>RASHOD_PTO</v>
+        <v>Kilovaty_2</v>
       </c>
       <c r="C1" t="str">
-        <v>Kilovaty</v>
-      </c>
-      <c r="D1" t="str">
-        <v>NumberSCH</v>
-      </c>
-      <c r="E1" t="str">
-        <v>value</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Kilovaty_2</v>
-      </c>
-      <c r="G1" t="str">
-        <v>KONTORY_2</v>
-      </c>
-      <c r="H1" t="str">
         <v>NumberSCH_2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ОАО Мышь</v>
+        <v>Фирма 12</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="D2">
-        <v>231</v>
-      </c>
-      <c r="E2">
-        <v>92</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ИП вартилов</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
+        <v>Фирма 72</v>
       </c>
       <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>233</v>
-      </c>
-      <c r="E3">
-        <v>-10</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Дом не жилой</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
+        <v>ИП ХЗКТОТЫЧ</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>235</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ИП ХЗКТОТЫЧ</v>
-      </c>
-      <c r="B5">
-        <v>2333</v>
+        <v>фирма 19</v>
       </c>
       <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>222</v>
-      </c>
-      <c r="E5">
-        <v>2310</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Какой то чел</v>
-      </c>
-      <c r="B6">
-        <v>321</v>
-      </c>
-      <c r="C6">
-        <v>1234</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>-913</v>
-      </c>
-      <c r="F6">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Фирма 12</v>
-      </c>
-      <c r="B7">
-        <v>213</v>
-      </c>
-      <c r="C7">
-        <v>123</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Фирма 24</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>532</v>
-      </c>
-      <c r="D8">
-        <v>5578</v>
-      </c>
-      <c r="E8">
-        <v>-521</v>
-      </c>
-      <c r="F8">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Фирма 72</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>123</v>
-      </c>
-      <c r="D9">
-        <v>1232</v>
-      </c>
-      <c r="E9">
-        <v>-101</v>
-      </c>
-      <c r="F9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>фирма 19</v>
-      </c>
-      <c r="B10">
-        <v>223</v>
-      </c>
-      <c r="C10">
-        <v>313</v>
-      </c>
-      <c r="D10">
-        <v>31245</v>
-      </c>
-      <c r="E10">
-        <v>-90</v>
-      </c>
-      <c r="F10">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11">
-        <v>123</v>
-      </c>
-      <c r="F11">
-        <v>123</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Фирма 12</v>
-      </c>
-      <c r="H11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Фирма 72</v>
-      </c>
-      <c r="H12">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <v>ИП ХЗКТОТЫЧ</v>
-      </c>
-      <c r="H13">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="str">
-        <v>фирма 19</v>
-      </c>
-      <c r="H14">
         <v>31245</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -1,19 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwer\Documents\GitHub\xlsxtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23640" windowHeight="6945"/>
+  </bookViews>
   <sheets>
     <sheet name="Newdata" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>NumberSCH_2</t>
+  </si>
+  <si>
+    <t>Kilovaty_2</t>
+  </si>
+  <si>
+    <t>Kontory_2</t>
+  </si>
+  <si>
+    <t>Фирма 12</t>
+  </si>
+  <si>
+    <t>Фирма 72</t>
+  </si>
+  <si>
+    <t>ИП ХЗКТОТЫЧ</t>
+  </si>
+  <si>
+    <t>фирма 19</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,14 +75,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,61 +419,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>KONTORY_2</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Kilovaty_2</v>
-      </c>
-      <c r="C1" t="str">
-        <v>NumberSCH_2</v>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Фирма 12</v>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Фирма 72</v>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1232</v>
       </c>
       <c r="C3">
-        <v>1232</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ИП ХЗКТОТЫЧ</v>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
       </c>
       <c r="C4">
-        <v>222</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>фирма 19</v>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>31245</v>
       </c>
       <c r="C5">
-        <v>31245</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="B1:C5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/New Data File.xlsx
+++ b/New Data File.xlsx
@@ -1,52 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwer\Documents\GitHub\xlsxtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23640" windowHeight="6945"/>
-  </bookViews>
   <sheets>
     <sheet name="Newdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>NumberSCH_2</t>
-  </si>
-  <si>
-    <t>Kilovaty_2</t>
-  </si>
-  <si>
-    <t>Kontory_2</t>
-  </si>
-  <si>
-    <t>Фирма 12</t>
-  </si>
-  <si>
-    <t>Фирма 72</t>
-  </si>
-  <si>
-    <t>ИП ХЗКТОТЫЧ</t>
-  </si>
-  <si>
-    <t>фирма 19</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,26 +49,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,77 +381,1394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1232</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>222</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>31245</v>
-      </c>
-      <c r="C5">
-        <v>313</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>KONTORY_2</v>
+      </c>
+      <c r="B1" t="str">
+        <v>NumberSCH_2</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Kilovaty_2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ИП Сыч</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Витебские ковры</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ИП Карев</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Виктория</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Архив</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ИП Гавецкий</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Маг №6 Сов.погр.106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Маг №2 Л.Чайкиной 45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев ночь</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Фирма Техномиг</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Цифровая сеть  Комп.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ПК"Парикмах-я Каприз"</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> -//-  водонагр(резерв)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Аптека №134   Л.Чайкиной 45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> -//-  водонагр(резерв)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Аптека №114   Поповича 10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Одристайл</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев ночь</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Банкомат    Л.Чайкиной 45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve">МСС аноним. наркоманов </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Сорока</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>"Велла Гродно"</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Школа олимп.резерва№1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>ИП Нагула</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ЧУП Фотоцентр Мега</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>ЧУП  КУРАЖстиль</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve"> -//- гвс</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>ЧСУП БытСервисЛюкс</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>ИП Лимановская</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>ЧТУП Святобор</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>ЧП   Эллин- Мод</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>"ТропикСан"</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>ИП  Жданов В.Н.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>М-н  Ва-Дена</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>ИП Киушкин</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Бел.банк 400/163 Косм.10б</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Бел.банк  426/70  Косм. 38а</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Аптека №158 Косм. 38а</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Аптека №158 Косм. 38а</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>"Отличный выбор"</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>ИП Протас</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Белэконом Гродно</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Аптека №3  Антонова 4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>"Ситимаркет"</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>ЧСУП "Тир-Тор"</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Косандра ИКС</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>профавтоматика</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>ЧП"Фаленопсис"</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>ИП  Федюк В.И.</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>УПТП "Зарница"</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>ИП"Малый"</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Зеленый мир</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Белинвестэнергосбережение</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>ЧУП"Стиль-Лорив"</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>ЮАВТО</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>УЧП"Люкс"</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>ГК Городничанка</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve">Грод. нотариальная палата </v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Богданчук</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Мастацтво</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Глобусмедиа</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>ИП Эйсмонт</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>ООО БелДрев-Гро</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>СДЮШОР №8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>ИП Кеда</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>ИП Талюк</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>ИП  Галезников</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>ЧУП ДАР центр</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев ночь</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>ЧП  Рыбачек</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>ООО  Грант дебюд</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Тир  Тор</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Элитмонтажсервис</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>ОДО Парма</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>ИнваШанс</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Маг №9 Титова 11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев ночь</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>ООО Май-книги</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Больница №2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Админ.Октябрьского р-на</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>ИП "Дулуб"</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Янушкевич</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>ИП Богатырева</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>ИП Макаревич А.К.</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Зезюля</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>ООО РМБСпай</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve"> -//-  гвс</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Парикмах-я Грицкевич</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v xml:space="preserve"> -//-  гвс день</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Аптека СалюсЛайн Суворов 13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v xml:space="preserve"> -//-  гвс день</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v xml:space="preserve"> -//-  гвс ночь</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Ветеран. Парикм.</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день </v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>ЦБС</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Худ.Мазалевич</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>ИП Борцов</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v xml:space="preserve"> -//-  гвс ночь</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>ИП  Сычев</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v xml:space="preserve"> Химч. Чайка</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>ИП  Ускова О.А.</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>ИП Матягина</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v xml:space="preserve"> -//-  гвс день</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Админ.Октябрьского р-на</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>ЦСО ул. Фомичева, 17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Зеленая дверца</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>"Миллам"</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>"Эскад-студия"</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>ИП Горкалова</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>ИП   Ашанов</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>"Ирэяна"</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>"Супер Шуз"</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>ИП Субботин</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Цунами</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Рембыттехника</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>ЧУП  Ремтекстиль</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>ПК Ремчас</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>ИП Михайловская</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>ИП Гразион</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Коронец</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Висем</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Белвторполимер</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Степанов А.В.</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>ООО Жеторг</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>ИП Смирнова</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>ГОО  Семья</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>ИП Павилойть</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Аптека №159   Клецкова 34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>ИП Мулярчик</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Олеся-Гродно</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>ОДО"Комелия"</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>ИП Мисюля</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>СООО  МТС</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>ЧУП "КанВа-сервис"</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Лайн торг сервис</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v xml:space="preserve"> -//-гвс</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>ПК Манометр</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>СТК Ремстрой</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>ИП Томещик А.С.</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>ОДО  Фатон</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>МВД Щорса 41</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Админ.Октябрьского р-на</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>ПОДО "Пчелка плюс"</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Вест.трафик.Групп</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Эксион плюс</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>ЧУП "Лерэма"</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Умкаград</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v xml:space="preserve">ООО А и А </v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v xml:space="preserve">Сервис Генуя </v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Синкевич</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>ИП  Демченко В.Н.</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>ООО"Белмистр"</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Скляр</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Пилец</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>"Демитра"</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Алексейчик</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Жданук</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Стромтранс</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="184"/>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>УП Ивафарм</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Эдемик</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>ИП Рублевская</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Отдел культуры горисп</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Админ.Октябрьского р-на</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>ИП Скорб</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Магазин БелГродТорг</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев день</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v xml:space="preserve"> -//- эл-ро обогрев ночь</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Итого</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Инженер-энергетик</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>NumberSCH_2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Расход э/энергии  за август м-ц  2020г.</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>диспетчерские лифтовые</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Фолюш 15/200а</v>
+      </c>
+    </row>
+    <row r="203"/>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Пороховая 12</v>
+      </c>
+      <c r="B204">
+        <v>2048930</v>
+      </c>
+    </row>
+    <row r="205"/>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Клецкова 96</v>
+      </c>
+      <c r="B206">
+        <v>529166</v>
+      </c>
+      <c r="C206">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Я.Купалы 27</v>
+      </c>
+      <c r="B207">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Репина 9 кв 74</v>
+      </c>
+      <c r="B208">
+        <v>1000463</v>
+      </c>
+      <c r="C208">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Репина 9 кв 74</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Клецкова 29а</v>
+      </c>
+      <c r="B210">
+        <v>2047243</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Кабяка 8/1</v>
+      </c>
+      <c r="B211">
+        <v>394860</v>
+      </c>
+      <c r="C211">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="212"/>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Фолюш 15/200а</v>
+      </c>
+      <c r="B213">
+        <v>528983</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Южная 15</v>
+      </c>
+      <c r="B214">
+        <v>2048874</v>
+      </c>
+      <c r="C214">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="215"/>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Расход э/энергии  за август 2020г.</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v xml:space="preserve">курс. коэф.- </v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>по лифтам</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Орды, 11</v>
+      </c>
+      <c r="B221">
+        <v>184671</v>
+      </c>
+      <c r="C221">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="223"/>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Расход э/энергии  за январь 2020г.</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v xml:space="preserve">курс. коэф. - </v>
+      </c>
+    </row>
+    <row r="226"/>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>по лифтам</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Гая 33</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Кабяка 8/1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Кабяка 8/2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Космонавтов 41б</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Клецкова 96</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Клецкова 98</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Бухгалтер                      Н.Н.Дадацкая</v>
+      </c>
+    </row>
+    <row r="237"/>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Справка  за ноябрь 2019 г.</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Архив</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Акт №083327 от 18.11.2019</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Бухгалтер                      Н.Н.Дадацкая</v>
+      </c>
+    </row>
+    <row r="244"/>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Справка  за ноябрь 2019 г.</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Архив</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Акт №083327 от 18.11.2019</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Бухгалтер                      Н.Н.Дадацкая</v>
+      </c>
+    </row>
+    <row r="251"/>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Акт № 066055 от 27.06.2016</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>ООО Ситимаркет</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>ИТОГО:</v>
+      </c>
+    </row>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>ПК Манометр ( 102 кВтч)</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>ООО Иреяна ( 919 кВтч)</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>ИТОГО:</v>
+      </c>
+    </row>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Справка  за декабрь 2019 г.</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Принеманский</v>
+      </c>
+    </row>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Итого:</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Справочно : тариф по которому была выставлена э/энергия данному предприятию за декабрь 2018 г составил 0.30287 руб. коп., надо по тарифу 0.25858 руб.коп.; за период январь-ноябрь 2019 г 0.31990 руб.коп., надо по тарифу 0.27312 руб.коп.</v>
+      </c>
+    </row>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Справка  за декабрь 2019 г.</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Пользователь</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Принеманский</v>
+      </c>
+    </row>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Итого:</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:C5" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C296"/>
   </ignoredErrors>
 </worksheet>
 </file>